--- a/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/OpenLisWeb/21.01.00/report-checklist.xlsx
+++ b/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/OpenLisWeb/21.01.00/report-checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fasalemm\Documents\Lavoro\FSE2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fasalemm\Documents\GitHub\it-fse-accreditamento\GATEWAY\S1#111ENGINNERING\Engineering_Ingegneria_Informatica_S.p.A\OpenLisWeb\21.01.00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9179C4D9-C6C2-45A7-A377-8263D1D5D348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B344F2-1C1F-441C-8957-BB49673F4FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-4965" windowWidth="29040" windowHeight="15840" xr2:uid="{45719620-2FD1-4552-A135-64BB57A71FCF}"/>
   </bookViews>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>ID</t>
   </si>
@@ -156,12 +156,6 @@
 </t>
   </si>
   <si>
-    <t>b7ed679c88bad380</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.b93fac2f1b3c2b16bf59231fd7f4d399b3909c88a3033ae0d9dec3bfdee677fa.75bd1561e6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>SI</t>
   </si>
   <si>
@@ -177,12 +171,6 @@
 </t>
   </si>
   <si>
-    <t>0eec5c0c6dc95a09</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.285ff1925e9ba2cd6dfe816de0d23f2f7e229ad07096a87a85dd74bef19768f7.4e3e78c504^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LAB_CT3</t>
   </si>
   <si>
@@ -192,12 +180,6 @@
 </t>
   </si>
   <si>
-    <t>1cc0a2956d976026</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.13f36bce63f58712f6459fd10f976b20e911b1f9331dde7594c5681113fc1c67.9baaad3053^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LAB_CT4</t>
   </si>
   <si>
@@ -207,12 +189,6 @@
 </t>
   </si>
   <si>
-    <t>8f642aa9943e45cc</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.3f597f01897a6f57ff8e5f5e0051da972a16a9f0c6daf32c9c9c01a727c78fd2.9cbfda531e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LAB_CT5</t>
   </si>
   <si>
@@ -220,12 +196,6 @@
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Laboratorio dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 5" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
 </t>
-  </si>
-  <si>
-    <t>9612a22d3be4c308</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.bf2c2c9fe437110075a2214464e7ef27a7a3d8595b200118ceb71792e3787994.a9c4c4c95f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_LAB_KO</t>
@@ -323,9 +293,6 @@
     </r>
   </si>
   <si>
-    <t>5fce0ff6d0bb5085</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_LAB_TIMEOUT</t>
   </si>
   <si>
@@ -353,9 +320,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>7b93a5626233ed6e</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LAB_CT8_KO</t>
   </si>
   <si>
@@ -363,12 +327,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>da4aceb84e2d84d7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.8e9c2b73adf273df6671a6967e9c1c5845f4f80338decdf630badf138e3bac94.165e2645ad^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LAB_CT9_KO</t>
   </si>
   <si>
@@ -403,12 +361,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>9668ab9faae28aec</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.fd22994bc7c58aadab1e9d9e4f85cfcf9cadbf8a412c48edaa1fdb2b036b0f72.1adfaa7ce6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LAB_CT13_KO</t>
   </si>
   <si>
@@ -416,12 +368,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>524b389c0d924fbb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.35121184b54367e0a28272bca20cf7d5d4510a4361a3c467e9c7824b05178927.cf67c5778a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LAB_CT14_KO</t>
   </si>
   <si>
@@ -429,12 +375,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>a2dfde6f22adfecd</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.fd22994bc7c58aadab1e9d9e4f85cfcf9cadbf8a412c48edaa1fdb2b036b0f72.9448fa3f6d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LAB_CT15_KO</t>
   </si>
   <si>
@@ -447,6 +387,93 @@
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>a2735f97b3d3ef68</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.76b2b73e459caf4a8471d4f4179edfff8ba13c710e1f16c0cfa9557c637996eb.be36b794d5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-03T11:47:29Z</t>
+  </si>
+  <si>
+    <t>32bda0909e8f1ca5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.b6fe5ef53219755dd2bc9278b25283017acb89fb965a5b3dcb9ce0e460b832e7.41998613c8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-03T12:16:55Z</t>
+  </si>
+  <si>
+    <t>bd7534cc9da542e3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.dc57145a2f00d2bbdc51b87566ab588a0369dfa4b95e4ceb4dc8921eba005d7f.ab75a232d7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-03T12:26:01Z</t>
+  </si>
+  <si>
+    <t>9bc547a176d7874c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.00c8b21447e5435c0879e69ba2e30aa77b77940f9f7cb24bd89f79cc005d7db9.9ff9e5fdb7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-03T12:31:26Z</t>
+  </si>
+  <si>
+    <t>44cd7a6254883840</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.07b01a2a3a374c407cfc2f18cb9339b72575b8c0d933476fbed72d4a550b701e.8fa3938ccf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-03T12:36:22Z</t>
+  </si>
+  <si>
+    <t>e85f99f5eca606ee</t>
+  </si>
+  <si>
+    <t>UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t>2023-02-03T11:44:35Z</t>
+  </si>
+  <si>
+    <t>Il referto non viene prodotto e viene visualizzato a video il seguente messaggio di errore: 'Errore durante la validazione del referto: Campo token JWT non valido.'</t>
+  </si>
+  <si>
+    <t>e038f83af4961d44</t>
+  </si>
+  <si>
+    <t>2023-02-03T15:58:22Z</t>
+  </si>
+  <si>
+    <t>ab05e1350ac2cb64</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.6999035a578ad82dcb97ebaa144285e3771d4cd3aedad75ae60b623f1eaaff4c.3b5025ead1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-03T16:37:50Z</t>
+  </si>
+  <si>
+    <t>Il referto non viene prodotto e viene visualizzato a video il seguente messaggio di errore: 'Errore durante la validazione del referto: Errore semantico.'</t>
+  </si>
+  <si>
+    <t>Il campo oggetto del caso di test è sempre valorizzato con 'N' o 'V'. Non sono possibili valori differenti.</t>
+  </si>
+  <si>
+    <t>e75474093f38aeed</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.6999035a578ad82dcb97ebaa144285e3771d4cd3aedad75ae60b623f1eaaff4c.c640424e29^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-02-03T16:58:34Z</t>
   </si>
 </sst>
 </file>
@@ -940,7 +967,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -950,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D484161F-7FD3-444A-9EA9-78129203796A}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,21 +1062,23 @@
         <v>18</v>
       </c>
       <c r="F2" s="8">
-        <v>44937</v>
-      </c>
-      <c r="G2" s="9"/>
+        <v>44960</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="H2" s="9" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="11"/>
@@ -1066,27 +1095,29 @@
         <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" s="8">
-        <v>44938</v>
-      </c>
-      <c r="G3" s="9"/>
+        <v>44960</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="H3" s="9" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M3" s="10"/>
       <c r="N3" s="11"/>
@@ -1103,27 +1134,29 @@
         <v>16</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F4" s="8">
-        <v>44939</v>
-      </c>
-      <c r="G4" s="9"/>
+        <v>44960</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="H4" s="9" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="11"/>
@@ -1140,27 +1173,29 @@
         <v>16</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F5" s="8">
-        <v>44939</v>
-      </c>
-      <c r="G5" s="9"/>
+        <v>44960</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="H5" s="9" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="11"/>
@@ -1177,27 +1212,29 @@
         <v>16</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F6" s="8">
-        <v>44943</v>
-      </c>
-      <c r="G6" s="9"/>
+        <v>44960</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="H6" s="9" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="11"/>
@@ -1214,10 +1251,10 @@
         <v>16</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
@@ -1225,14 +1262,14 @@
       <c r="I7" s="9"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O7" s="12"/>
     </row>
@@ -1247,27 +1284,33 @@
         <v>16</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F8" s="8">
-        <v>44942</v>
-      </c>
-      <c r="G8" s="9"/>
+        <v>44960</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="H8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
+        <v>78</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="K8" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
       <c r="N8" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O8" s="12"/>
     </row>
@@ -1282,25 +1325,25 @@
         <v>16</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="10" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O9" s="12"/>
     </row>
@@ -1315,10 +1358,10 @@
         <v>16</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
@@ -1326,14 +1369,14 @@
       <c r="I10" s="9"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="L10" s="10"/>
       <c r="M10" s="10" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O10" s="12"/>
     </row>
@@ -1348,27 +1391,33 @@
         <v>16</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F11" s="8">
-        <v>44942</v>
-      </c>
-      <c r="G11" s="9"/>
+        <v>44960</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>83</v>
+      </c>
       <c r="H11" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
+        <v>82</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="K11" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O11" s="12"/>
     </row>
@@ -1383,29 +1432,25 @@
         <v>16</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="8">
-        <v>44931</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="F12" s="8"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>58</v>
-      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="M12" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="N12" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O12" s="12"/>
     </row>
@@ -1420,10 +1465,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="9"/>
@@ -1431,14 +1476,14 @@
       <c r="I13" s="9"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O13" s="12"/>
     </row>
@@ -1453,10 +1498,10 @@
         <v>16</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
@@ -1464,14 +1509,14 @@
       <c r="I14" s="9"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="L14" s="10"/>
       <c r="M14" s="10" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O14" s="12"/>
     </row>
@@ -1486,10 +1531,10 @@
         <v>16</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
@@ -1497,14 +1542,14 @@
       <c r="I15" s="9"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O15" s="12"/>
     </row>
@@ -1519,29 +1564,25 @@
         <v>16</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="8">
-        <v>44931</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="F16" s="8"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>70</v>
-      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
+      <c r="M16" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="N16" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O16" s="12"/>
     </row>
@@ -1556,29 +1597,33 @@
         <v>16</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F17" s="8">
-        <v>44939</v>
-      </c>
-      <c r="G17" s="9"/>
+        <v>44960</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="H17" s="9" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="J17" s="10"/>
+        <v>85</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="K17" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O17" s="12"/>
     </row>
@@ -1593,29 +1638,33 @@
         <v>16</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F18" s="8">
-        <v>44931</v>
-      </c>
-      <c r="G18" s="9"/>
+        <v>44960</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="H18" s="9" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="J18" s="10"/>
+        <v>90</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>87</v>
+      </c>
       <c r="K18" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
       <c r="N18" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O18" s="12"/>
     </row>
@@ -1630,10 +1679,10 @@
         <v>16</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F19" s="8"/>
       <c r="G19" s="9"/>
@@ -1641,14 +1690,14 @@
       <c r="I19" s="9"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="10" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O19" s="12"/>
     </row>
@@ -1663,10 +1712,10 @@
         <v>16</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F20" s="8"/>
       <c r="G20" s="9"/>
@@ -1674,14 +1723,14 @@
       <c r="I20" s="9"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="L20" s="10"/>
       <c r="M20" s="10" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O20" s="12"/>
     </row>

--- a/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/OpenLisWeb/21.01.00/report-checklist.xlsx
+++ b/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/OpenLisWeb/21.01.00/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fasalemm\Documents\GitHub\it-fse-accreditamento\GATEWAY\S1#111ENGINNERING\Engineering_Ingegneria_Informatica_S.p.A\OpenLisWeb\21.01.00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B344F2-1C1F-441C-8957-BB49673F4FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D54530-57F3-4CF9-8B9F-6922695A09F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4965" windowWidth="29040" windowHeight="15840" xr2:uid="{45719620-2FD1-4552-A135-64BB57A71FCF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{45719620-2FD1-4552-A135-64BB57A71FCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="91">
   <si>
     <t>ID</t>
   </si>
@@ -446,12 +446,6 @@
     <t>Il referto non viene prodotto e viene visualizzato a video il seguente messaggio di errore: 'Errore durante la validazione del referto: Campo token JWT non valido.'</t>
   </si>
   <si>
-    <t>e038f83af4961d44</t>
-  </si>
-  <si>
-    <t>2023-02-03T15:58:22Z</t>
-  </si>
-  <si>
     <t>ab05e1350ac2cb64</t>
   </si>
   <si>
@@ -474,6 +468,9 @@
   </si>
   <si>
     <t>2023-02-03T16:58:34Z</t>
+  </si>
+  <si>
+    <t>Il caso di test non è applicabile in quanto una modifica al codice fiscale del paziente invaliderebbe il token JWT.</t>
   </si>
 </sst>
 </file>
@@ -977,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D484161F-7FD3-444A-9EA9-78129203796A}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,26 +1393,18 @@
       <c r="E11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="8">
-        <v>44960</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>81</v>
-      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="10"/>
       <c r="K11" s="10" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
+      <c r="M11" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="N11" s="11" t="s">
         <v>19</v>
       </c>
@@ -1447,7 +1436,7 @@
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N12" s="11" t="s">
         <v>19</v>
@@ -1606,16 +1595,16 @@
         <v>44960</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I17" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>87</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>19</v>
@@ -1647,16 +1636,16 @@
         <v>44960</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>19</v>

--- a/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/OpenLisWeb/21.01.00/report-checklist.xlsx
+++ b/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/OpenLisWeb/21.01.00/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fasalemm\Documents\GitHub\it-fse-accreditamento\GATEWAY\S1#111ENGINNERING\Engineering_Ingegneria_Informatica_S.p.A\OpenLisWeb\21.01.00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D54530-57F3-4CF9-8B9F-6922695A09F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86E75C1-635C-4E8E-AD52-E422D35545EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{45719620-2FD1-4552-A135-64BB57A71FCF}"/>
+    <workbookView xWindow="20370" yWindow="-4965" windowWidth="29040" windowHeight="15840" xr2:uid="{45719620-2FD1-4552-A135-64BB57A71FCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>ID</t>
   </si>
@@ -443,9 +443,6 @@
     <t>2023-02-03T11:44:35Z</t>
   </si>
   <si>
-    <t>Il referto non viene prodotto e viene visualizzato a video il seguente messaggio di errore: 'Errore durante la validazione del referto: Campo token JWT non valido.'</t>
-  </si>
-  <si>
     <t>ab05e1350ac2cb64</t>
   </si>
   <si>
@@ -455,9 +452,6 @@
     <t>2023-02-03T16:37:50Z</t>
   </si>
   <si>
-    <t>Il referto non viene prodotto e viene visualizzato a video il seguente messaggio di errore: 'Errore durante la validazione del referto: Errore semantico.'</t>
-  </si>
-  <si>
     <t>Il campo oggetto del caso di test è sempre valorizzato con 'N' o 'V'. Non sono possibili valori differenti.</t>
   </si>
   <si>
@@ -471,6 +465,15 @@
   </si>
   <si>
     <t>Il caso di test non è applicabile in quanto una modifica al codice fiscale del paziente invaliderebbe il token JWT.</t>
+  </si>
+  <si>
+    <t>Il referto non viene prodotto e viene visualizzato a video un messaggio configurato nel sistema indicante la natura dell'errore e l'azione che l'utente deve intraprendere. Per questo caso di test, l'unico campo del token JWT immesso manualmente dall'utente è il codice fiscale del paziente che andrà a formare il campo person_id. In tal caso viene mostrato il seguente messaggio di errore:  "Errore durante la validazione del referto: Campo token JWT non valido. Il codice fiscale del paziente non è formalmente corretto! Modificare il codice fiscale per validare il referto."</t>
+  </si>
+  <si>
+    <t>Il referto non viene prodotto e viene visualizzato a video un messaggio configurato nel sistema indicante la natura dell'errore e l'azione che l'utente deve intraprendere.  Viene visualizzato a video il seguente messaggio di errore: "Errore durante la validazione del referto: Errore semantico. Numero ricetta elettronica non presente o non corretto. Segnalare in accettazione la non correttezza del dato."</t>
+  </si>
+  <si>
+    <t>Il referto non viene prodotto e viene visualizzato a video un messaggio configurato nel sistema indicante la natura dell'errore e l'azione che l'utente deve intraprendere.  Il campo oggetto del test è immesso automaticamente sulla base di configurazione del sistema. Viene visualizzato a video il seguente messaggio di errore: "Errore durante la validazione del referto: Errore semantico. Codifica specialità di laboratorio non presente o non corretta. Contattare l'amministratore di sistema."</t>
   </si>
 </sst>
 </file>
@@ -974,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D484161F-7FD3-444A-9EA9-78129203796A}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I10" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="E11" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,7 +990,7 @@
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" customWidth="1"/>
     <col min="9" max="9" width="42.5703125" customWidth="1"/>
-    <col min="10" max="10" width="34" customWidth="1"/>
+    <col min="10" max="10" width="47.42578125" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
     <col min="12" max="12" width="13.7109375" customWidth="1"/>
     <col min="13" max="13" width="41.140625" customWidth="1"/>
@@ -1257,7 +1260,9 @@
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
+      <c r="J7" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="K7" s="10" t="s">
         <v>31</v>
       </c>
@@ -1297,9 +1302,6 @@
       </c>
       <c r="I8" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>81</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>19</v>
@@ -1403,7 +1405,7 @@
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N11" s="11" t="s">
         <v>19</v>
@@ -1436,7 +1438,7 @@
       </c>
       <c r="L12" s="10"/>
       <c r="M12" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N12" s="11" t="s">
         <v>19</v>
@@ -1595,16 +1597,16 @@
         <v>44960</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H17" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="9" t="s">
-        <v>83</v>
-      </c>
       <c r="J17" s="10" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K17" s="10" t="s">
         <v>19</v>
@@ -1636,16 +1638,16 @@
         <v>44960</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>19</v>
